--- a/biology/Botanique/Boisseau/Boisseau.xlsx
+++ b/biology/Botanique/Boisseau/Boisseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le boisseau est un récipient de forme cylindrique destiné à mesurer les matières sèches (grains et farines), de capacité variable suivant les lieux et les époques.
 Boisseau ou boitel (cas régime singulier) :
 cette mesure était utilisée en France du nord avant l'instauration du système métrique, et valait à Beauvais 12,67 litres (un douzième de setier de Paris). 
 Il a donné son nom :
-à l'expression "mettre sous le boisseau"[1] ;
-à une unité de mesure (ex :  boisseau métrique, unité de transition instaurée en 1812, et désormais désuète, qui valait 10 litres)[2] ;
+à l'expression "mettre sous le boisseau" ;
+à une unité de mesure (ex :  boisseau métrique, unité de transition instaurée en 1812, et désormais désuète, qui valait 10 litres) ;
 à la vanne à boisseau sphérique (petite vanne, généralement en laiton recouvert d'une pellicule de métal argenté, qui se ferme ou s'ouvre avec poignée simple ou une poignée papillon</t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Unités anglo-saxonnes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">le boisseau impérial vaut 8 gallons du système impérial d'unités, soit exactement 36,368 72 dm3 ;
 le boisseau US (« boisseau ras ») est défini comme valant 2 150,42 pouces cubes soit 8 gallons US dry, soit exactement 35,239 070 668 8 dm3 ;
